--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/1.NhanBH/NBH211110_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/1.NhanBH/NBH211110_AnhTuanBG.xlsx
@@ -13,17 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -83,6 +79,24 @@
   </si>
   <si>
     <t>ĐT: 0915.22.33.99</t>
+  </si>
+  <si>
+    <t>TG102LE</t>
+  </si>
+  <si>
+    <t>TG102E</t>
+  </si>
+  <si>
+    <t>TG102V</t>
+  </si>
+  <si>
+    <t>TG102SE</t>
+  </si>
+  <si>
+    <t>TG102</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -911,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1039,202 +1053,436 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="17">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="17">
+        <v>868183038085200</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="21"/>
+      <c r="A12" s="17">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="17">
+        <v>867717030623863</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="17">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="17">
+        <v>862549040693148</v>
+      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="17">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="17">
+        <v>862549040722202</v>
+      </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="17">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="17">
+        <v>866192037796156</v>
+      </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="17">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="17">
+        <v>868345035605187</v>
+      </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="42" t="s">
+      <c r="E16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="17">
+        <v>868926033977684</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="17">
+        <v>868926033974947</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="17">
+        <v>866104022261765</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="17">
+        <v>861694031743550</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="17">
+        <v>862631034726785</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="17">
+        <v>863586032923637</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>13</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="17">
+        <v>862631039279426</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>14</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="17">
+        <v>862631034712066</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>15</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="17">
+        <v>866762029426481</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
         <v>16</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-    </row>
-    <row r="18" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="36" t="s">
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="17">
+        <v>866104024722095</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>17</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="17">
+        <v>862631034704824</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>18</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="17">
+        <v>866104028883539</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>19</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="17">
+        <v>864161026907241</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>20</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="17">
+        <v>862118020955453</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+    </row>
+    <row r="32" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="26" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="25"/>
+    </row>
+    <row r="34" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="25"/>
+    </row>
+    <row r="36" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-    </row>
-    <row r="24" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="8:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+    </row>
+    <row r="38" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="8:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D31:F31"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D37:F37"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>